--- a/va_facility_data_2025-02-20/Mountain City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mountain%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mountain City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mountain%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R79d3eead59cb42b4903f22e03bc30793"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R45c69170f67d43a4a73b57da981e4121"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7050f81cb9db47a4baa36a157b50f64e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb37a3bd0913a4d30982ba8045efa1be7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9add80ee7dab4c91a43c13841bf3f104"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R15db4b1a5b024840a143c385f8adc13e"/>
   </x:sheets>
 </x:workbook>
 </file>
